--- a/figures/exploratory/explore_qc_data/tables/Logan-OUD-snRNAseq.summary_QC_stats.BU_Run0-7_20220517.xlsx
+++ b/figures/exploratory/explore_qc_data/tables/Logan-OUD-snRNAseq.summary_QC_stats.BU_Run0-7_20220517.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/badoiphan/Library/Caches/com.binarynights.ForkLift-3/FileCache/32024911-5AAB-435A-B551-BB3219C7BD70/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/badoiphan/Library/Caches/com.binarynights.ForkLift-3/FileCache/BBABA86B-1C29-4438-AF34-3D569F37BFAF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9049837F-72F9-3148-B4B9-71BD6770BCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD677910-8AE6-3740-91AB-1806E4F7FAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="34420" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,7 +178,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -245,7 +245,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -256,17 +256,22 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -610,14 +615,14 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" style="3" customWidth="1"/>
     <col min="6" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
@@ -643,7 +648,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -714,7 +719,7 @@
       <c r="B2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="12">
         <v>30371888</v>
       </c>
       <c r="D2" s="4">
@@ -782,7 +787,7 @@
       <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="12">
         <v>114954206</v>
       </c>
       <c r="D3" s="4">
@@ -850,7 +855,7 @@
       <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="13">
         <v>201937910</v>
       </c>
       <c r="D4">
@@ -918,7 +923,7 @@
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="13">
         <v>156707650</v>
       </c>
       <c r="D5">
@@ -986,7 +991,7 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="13">
         <v>782644940</v>
       </c>
       <c r="D6">
@@ -1054,7 +1059,7 @@
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="13">
         <v>577044503</v>
       </c>
       <c r="D7">
@@ -1122,7 +1127,7 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="13">
         <v>721677589</v>
       </c>
       <c r="D8">
@@ -1190,7 +1195,7 @@
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="13">
         <v>404714927</v>
       </c>
       <c r="D9">
@@ -1258,7 +1263,7 @@
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="13">
         <v>231815253</v>
       </c>
       <c r="D10">
@@ -1326,7 +1331,7 @@
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="13">
         <v>375565938</v>
       </c>
       <c r="D11">
@@ -1394,7 +1399,7 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="13">
         <v>641162263</v>
       </c>
       <c r="D12">
@@ -1462,7 +1467,7 @@
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="13">
         <v>729781750</v>
       </c>
       <c r="D13">
@@ -1530,7 +1535,7 @@
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="13">
         <v>421142560</v>
       </c>
       <c r="D14">
@@ -1598,7 +1603,7 @@
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="13">
         <v>753912220</v>
       </c>
       <c r="D15">
@@ -1666,7 +1671,7 @@
       <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="13">
         <v>560167641</v>
       </c>
       <c r="D16">
@@ -1734,7 +1739,7 @@
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="13">
         <v>321207369</v>
       </c>
       <c r="D17">
@@ -1802,7 +1807,7 @@
       <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="13">
         <v>236753092</v>
       </c>
       <c r="D18">
@@ -1870,7 +1875,7 @@
       <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="13">
         <v>332261743</v>
       </c>
       <c r="D19">
@@ -1938,7 +1943,7 @@
       <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="13">
         <v>592259528</v>
       </c>
       <c r="D20">
@@ -2006,7 +2011,7 @@
       <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="13">
         <v>460631898</v>
       </c>
       <c r="D21">
@@ -2074,7 +2079,7 @@
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="13">
         <v>733966601</v>
       </c>
       <c r="D22">
@@ -2142,7 +2147,7 @@
       <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="13">
         <v>153017551</v>
       </c>
       <c r="D23">
@@ -2210,7 +2215,7 @@
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="13">
         <v>193020586</v>
       </c>
       <c r="D24">
@@ -2278,7 +2283,7 @@
       <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="13">
         <v>782147198</v>
       </c>
       <c r="D25">
